--- a/Code/Results/Cases/Case_0_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2114692905862086</v>
+        <v>0.3611711538166844</v>
       </c>
       <c r="D2">
-        <v>0.03031454040869619</v>
+        <v>0.05293986698581676</v>
       </c>
       <c r="E2">
-        <v>0.05306994640661777</v>
+        <v>0.1341110833114421</v>
       </c>
       <c r="F2">
-        <v>1.714788235267307</v>
+        <v>3.414142300303382</v>
       </c>
       <c r="G2">
-        <v>1.448084057661177</v>
+        <v>2.674864574869062</v>
       </c>
       <c r="H2">
-        <v>0.9479850930631102</v>
+        <v>2.144191772653727</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09465340695170354</v>
+        <v>0.2521415955952264</v>
       </c>
       <c r="K2">
-        <v>3.543477427457958</v>
+        <v>2.278151364513633</v>
       </c>
       <c r="L2">
-        <v>0.03458835005991823</v>
+        <v>0.1073198676380862</v>
       </c>
       <c r="M2">
-        <v>0.7433427529792027</v>
+        <v>0.6818063226443911</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1961597799136285</v>
+        <v>0.3593735820300168</v>
       </c>
       <c r="D3">
-        <v>0.02698309721916559</v>
+        <v>0.05203751109750243</v>
       </c>
       <c r="E3">
-        <v>0.0515882195815589</v>
+        <v>0.1343789104677509</v>
       </c>
       <c r="F3">
-        <v>1.664226583943147</v>
+        <v>3.428192868062069</v>
       </c>
       <c r="G3">
-        <v>1.40125938434322</v>
+        <v>2.686204409487985</v>
       </c>
       <c r="H3">
-        <v>0.9381312127545414</v>
+        <v>2.157466703631442</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09549795626785951</v>
+        <v>0.2538375658741359</v>
       </c>
       <c r="K3">
-        <v>3.083200622029437</v>
+        <v>2.156780224461102</v>
       </c>
       <c r="L3">
-        <v>0.03490120891116355</v>
+        <v>0.1076747805200879</v>
       </c>
       <c r="M3">
-        <v>0.6536466992691246</v>
+        <v>0.6601000140164786</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1870535306902781</v>
+        <v>0.3584268674124189</v>
       </c>
       <c r="D4">
-        <v>0.02494905113753276</v>
+        <v>0.05149047033647491</v>
       </c>
       <c r="E4">
-        <v>0.05073755351985376</v>
+        <v>0.1345842861272502</v>
       </c>
       <c r="F4">
-        <v>1.637023646858538</v>
+        <v>3.438640194198314</v>
       </c>
       <c r="G4">
-        <v>1.376213380827821</v>
+        <v>2.694775964570951</v>
       </c>
       <c r="H4">
-        <v>0.9341067062582908</v>
+        <v>2.166647454514745</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09616518247607075</v>
+        <v>0.2549698984456157</v>
       </c>
       <c r="K4">
-        <v>2.803109269918195</v>
+        <v>2.08308952106637</v>
       </c>
       <c r="L4">
-        <v>0.03510976213124106</v>
+        <v>0.1079077949471143</v>
       </c>
       <c r="M4">
-        <v>0.5992037971227262</v>
+        <v>0.6470419749549166</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1834113322555737</v>
+        <v>0.358080582085563</v>
       </c>
       <c r="D5">
-        <v>0.02412254819394022</v>
+        <v>0.05126933537287215</v>
       </c>
       <c r="E5">
-        <v>0.05040510826191458</v>
+        <v>0.1346782885769464</v>
       </c>
       <c r="F5">
-        <v>1.626846489840574</v>
+        <v>3.443354698317805</v>
       </c>
       <c r="G5">
-        <v>1.366879189659514</v>
+        <v>2.698672673456571</v>
       </c>
       <c r="H5">
-        <v>0.9329489841156544</v>
+        <v>2.170647445334893</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09647303277529673</v>
+        <v>0.2554542238731656</v>
       </c>
       <c r="K5">
-        <v>2.689511240780917</v>
+        <v>2.053270076689074</v>
       </c>
       <c r="L5">
-        <v>0.03519886469354461</v>
+        <v>0.1080065565083403</v>
       </c>
       <c r="M5">
-        <v>0.5771574825210095</v>
+        <v>0.6417887674637228</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1828105499607346</v>
+        <v>0.3580254687772992</v>
       </c>
       <c r="D6">
-        <v>0.02398543856436675</v>
+        <v>0.05123272488373232</v>
       </c>
       <c r="E6">
-        <v>0.05035074574907838</v>
+        <v>0.1346945208662422</v>
       </c>
       <c r="F6">
-        <v>1.625209821572767</v>
+        <v>3.444165131156311</v>
       </c>
       <c r="G6">
-        <v>1.365380281859146</v>
+        <v>2.699344079167076</v>
       </c>
       <c r="H6">
-        <v>0.9327851181380566</v>
+        <v>2.171327263040752</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09652628235706118</v>
+        <v>0.2555360285247623</v>
       </c>
       <c r="K6">
-        <v>2.670678513010159</v>
+        <v>2.048331300973871</v>
       </c>
       <c r="L6">
-        <v>0.03521390805014324</v>
+        <v>0.1080231859798655</v>
       </c>
       <c r="M6">
-        <v>0.5735046121196774</v>
+        <v>0.6409205931802475</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1870041393087263</v>
+        <v>0.3584220372774212</v>
       </c>
       <c r="D7">
-        <v>0.02493789558637616</v>
+        <v>0.05148748075512088</v>
       </c>
       <c r="E7">
-        <v>0.05073301335483116</v>
+        <v>0.1345855121068436</v>
       </c>
       <c r="F7">
-        <v>1.636882790191464</v>
+        <v>3.438701925512092</v>
       </c>
       <c r="G7">
-        <v>1.376084040239405</v>
+        <v>2.694826883371888</v>
       </c>
       <c r="H7">
-        <v>0.9340891744493121</v>
+        <v>2.166700352377362</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09616919051332573</v>
+        <v>0.2549763375342486</v>
       </c>
       <c r="K7">
-        <v>2.801575171676063</v>
+        <v>2.082686513531399</v>
       </c>
       <c r="L7">
-        <v>0.03511094716458452</v>
+        <v>0.1079091114551414</v>
       </c>
       <c r="M7">
-        <v>0.5989059316324088</v>
+        <v>0.6469708525286606</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2061263188927001</v>
+        <v>0.3605187811576371</v>
       </c>
       <c r="D8">
-        <v>0.02916316153998366</v>
+        <v>0.05262729499241914</v>
       </c>
       <c r="E8">
-        <v>0.05254636507328669</v>
+        <v>0.1341949461646834</v>
       </c>
       <c r="F8">
-        <v>1.696521003715148</v>
+        <v>3.418608797240438</v>
       </c>
       <c r="G8">
-        <v>1.431133011438334</v>
+        <v>2.678440129890589</v>
       </c>
       <c r="H8">
-        <v>0.9441500830244109</v>
+        <v>2.148555084728883</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09491285586501519</v>
+        <v>0.2527074838749002</v>
       </c>
       <c r="K8">
-        <v>3.384192915196365</v>
+        <v>2.236130521950429</v>
       </c>
       <c r="L8">
-        <v>0.03469279377331436</v>
+        <v>0.1074391144261613</v>
       </c>
       <c r="M8">
-        <v>0.7122726920826992</v>
+        <v>0.6742661316943099</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2462140397534966</v>
+        <v>0.3658756107919032</v>
       </c>
       <c r="D9">
-        <v>0.03756546913554359</v>
+        <v>0.05491709295650082</v>
       </c>
       <c r="E9">
-        <v>0.05660391909527007</v>
+        <v>0.1337530661593878</v>
       </c>
       <c r="F9">
-        <v>1.846799350141495</v>
+        <v>3.393677389327308</v>
       </c>
       <c r="G9">
-        <v>1.571389272170876</v>
+        <v>2.659110739866094</v>
       </c>
       <c r="H9">
-        <v>0.981285068352804</v>
+        <v>2.121154504863739</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09369914936484136</v>
+        <v>0.2489799851030412</v>
       </c>
       <c r="K9">
-        <v>4.551309767229839</v>
+        <v>2.543608239427272</v>
       </c>
       <c r="L9">
-        <v>0.03400453674147741</v>
+        <v>0.1066367822052445</v>
       </c>
       <c r="M9">
-        <v>0.9405375807188108</v>
+        <v>0.7299260046790508</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2776403941018799</v>
+        <v>0.3705704932402227</v>
       </c>
       <c r="D10">
-        <v>0.04385032657612697</v>
+        <v>0.05663160128567313</v>
       </c>
       <c r="E10">
-        <v>0.05994063914763181</v>
+        <v>0.1336250723430084</v>
       </c>
       <c r="F10">
-        <v>1.981877924622211</v>
+        <v>3.384225512252286</v>
       </c>
       <c r="G10">
-        <v>1.698588078859927</v>
+        <v>2.652773442196349</v>
       </c>
       <c r="H10">
-        <v>1.021218408445861</v>
+        <v>2.106027267355074</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09367702729985439</v>
+        <v>0.2466809685736244</v>
       </c>
       <c r="K10">
-        <v>5.430932690710108</v>
+        <v>2.773515241644247</v>
       </c>
       <c r="L10">
-        <v>0.03358105047804649</v>
+        <v>0.1061194358694246</v>
       </c>
       <c r="M10">
-        <v>1.113340134207263</v>
+        <v>0.7721173340004555</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2924645797762651</v>
+        <v>0.3728712959331233</v>
       </c>
       <c r="D11">
-        <v>0.04674421442490484</v>
+        <v>0.05741835431084752</v>
       </c>
       <c r="E11">
-        <v>0.06154828685860636</v>
+        <v>0.133609372656128</v>
       </c>
       <c r="F11">
-        <v>2.049776975146983</v>
+        <v>3.381860287215218</v>
       </c>
       <c r="G11">
-        <v>1.76281807387889</v>
+        <v>2.651610768407608</v>
       </c>
       <c r="H11">
-        <v>1.042644486452616</v>
+        <v>2.100235641360911</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09388280386034609</v>
+        <v>0.2457304623973968</v>
       </c>
       <c r="K11">
-        <v>5.837703580220705</v>
+        <v>2.87897648366453</v>
       </c>
       <c r="L11">
-        <v>0.03340673444572229</v>
+        <v>0.1058996125248131</v>
       </c>
       <c r="M11">
-        <v>1.193428368022936</v>
+        <v>0.7915929778486657</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.298163290148949</v>
+        <v>0.3737662815246665</v>
       </c>
       <c r="D12">
-        <v>0.04784606303421413</v>
+        <v>0.05771723616989277</v>
       </c>
       <c r="E12">
-        <v>0.0621711303590935</v>
+        <v>0.1336095271117621</v>
       </c>
       <c r="F12">
-        <v>2.076519001813551</v>
+        <v>3.381243559780046</v>
       </c>
       <c r="G12">
-        <v>1.788161325654272</v>
+        <v>2.651418854739632</v>
       </c>
       <c r="H12">
-        <v>1.051275161796639</v>
+        <v>2.098199508124338</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09399431523747381</v>
+        <v>0.2453842340356829</v>
       </c>
       <c r="K12">
-        <v>5.992857969487488</v>
+        <v>2.919037381691965</v>
       </c>
       <c r="L12">
-        <v>0.03334341033921717</v>
+        <v>0.1058185927424837</v>
       </c>
       <c r="M12">
-        <v>1.224002904698708</v>
+        <v>0.7990084227240004</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2969320288658821</v>
+        <v>0.3735724755884462</v>
       </c>
       <c r="D13">
-        <v>0.0476084765918543</v>
+        <v>0.05765282449607412</v>
       </c>
       <c r="E13">
-        <v>0.06203634470902841</v>
+        <v>0.1336092228104171</v>
       </c>
       <c r="F13">
-        <v>2.07071205717267</v>
+        <v>3.381363965374064</v>
       </c>
       <c r="G13">
-        <v>1.782656001245755</v>
+        <v>2.65144912459624</v>
       </c>
       <c r="H13">
-        <v>1.049392566371694</v>
+        <v>2.098631036863196</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09396876171073032</v>
+        <v>0.2454581908562687</v>
       </c>
       <c r="K13">
-        <v>5.959390074629425</v>
+        <v>2.910404003837186</v>
       </c>
       <c r="L13">
-        <v>0.03335692800904866</v>
+        <v>0.1058359431001827</v>
       </c>
       <c r="M13">
-        <v>1.217406567625062</v>
+        <v>0.7974095783903152</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2929316542796414</v>
+        <v>0.3729444516092428</v>
       </c>
       <c r="D14">
-        <v>0.04683473794175796</v>
+        <v>0.05744292448747501</v>
       </c>
       <c r="E14">
-        <v>0.06159923967815573</v>
+        <v>0.1336092632062105</v>
       </c>
       <c r="F14">
-        <v>2.051955784456908</v>
+        <v>3.381803954111305</v>
       </c>
       <c r="G14">
-        <v>1.764881975939716</v>
+        <v>2.651589996165228</v>
       </c>
       <c r="H14">
-        <v>1.043343878116445</v>
+        <v>2.100064978532487</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09389128917327483</v>
+        <v>0.245701703260039</v>
       </c>
       <c r="K14">
-        <v>5.850444777746532</v>
+        <v>2.882269817200267</v>
       </c>
       <c r="L14">
-        <v>0.03340147060034404</v>
+        <v>0.1058929024884714</v>
       </c>
       <c r="M14">
-        <v>1.195938597049704</v>
+        <v>0.7922022415527152</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2904926824341203</v>
+        <v>0.3725628575726603</v>
       </c>
       <c r="D15">
-        <v>0.04636161276496154</v>
+        <v>0.05731447840202009</v>
       </c>
       <c r="E15">
-        <v>0.06133336794873401</v>
+        <v>0.1336100818404802</v>
       </c>
       <c r="F15">
-        <v>2.040604415870348</v>
+        <v>3.382109807647694</v>
       </c>
       <c r="G15">
-        <v>1.754131129077109</v>
+        <v>2.651708658506806</v>
       </c>
       <c r="H15">
-        <v>1.039707747367402</v>
+        <v>2.100963768502908</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09384828978115323</v>
+        <v>0.2458526467812554</v>
       </c>
       <c r="K15">
-        <v>5.783863629218899</v>
+        <v>2.865053071071429</v>
       </c>
       <c r="L15">
-        <v>0.03342910556188272</v>
+        <v>0.1059280809266658</v>
       </c>
       <c r="M15">
-        <v>1.182822071254705</v>
+        <v>0.7890178583450762</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2766829879639374</v>
+        <v>0.370423450719997</v>
       </c>
       <c r="D16">
-        <v>0.04366198708905245</v>
+        <v>0.05658032015492864</v>
       </c>
       <c r="E16">
-        <v>0.05983747770626202</v>
+        <v>0.1336269527416327</v>
       </c>
       <c r="F16">
-        <v>1.977578878502385</v>
+        <v>3.384419076429651</v>
       </c>
       <c r="G16">
-        <v>1.694527341709659</v>
+        <v>2.652884126037407</v>
       </c>
       <c r="H16">
-        <v>1.0198877721391</v>
+        <v>2.106427720616438</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09366813422520437</v>
+        <v>0.2467450045924267</v>
       </c>
       <c r="K16">
-        <v>5.40449638392181</v>
+        <v>2.766640641683637</v>
       </c>
       <c r="L16">
-        <v>0.03359281538644776</v>
+        <v>0.1061341133560356</v>
       </c>
       <c r="M16">
-        <v>1.108138781662859</v>
+        <v>0.7708502245196769</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2683526826807565</v>
+        <v>0.3691532620760114</v>
       </c>
       <c r="D17">
-        <v>0.04201544700354276</v>
+        <v>0.0561316657019475</v>
       </c>
       <c r="E17">
-        <v>0.05894357049980137</v>
+        <v>0.1336481831379217</v>
       </c>
       <c r="F17">
-        <v>1.940636461621907</v>
+        <v>3.386331740603737</v>
       </c>
       <c r="G17">
-        <v>1.65966426607946</v>
+        <v>2.654046532597761</v>
       </c>
       <c r="H17">
-        <v>1.008596562409963</v>
+        <v>2.110059031729321</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09361462422941003</v>
+        <v>0.2473168526258007</v>
       </c>
       <c r="K17">
-        <v>5.173576547379128</v>
+        <v>2.706491384466801</v>
       </c>
       <c r="L17">
-        <v>0.03369797411613717</v>
+        <v>0.106264476060419</v>
       </c>
       <c r="M17">
-        <v>1.062725043616226</v>
+        <v>0.7597772075584572</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2636104227725156</v>
+        <v>0.3684382219010445</v>
       </c>
       <c r="D18">
-        <v>0.04107161769983492</v>
+        <v>0.05587425436667814</v>
       </c>
       <c r="E18">
-        <v>0.05843779103481239</v>
+        <v>0.1336643978985013</v>
       </c>
       <c r="F18">
-        <v>1.919988607391247</v>
+        <v>3.387613891405962</v>
       </c>
       <c r="G18">
-        <v>1.640204252845393</v>
+        <v>2.654876970636849</v>
       </c>
       <c r="H18">
-        <v>1.002405833437024</v>
+        <v>2.112250226853803</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09360399414364196</v>
+        <v>0.247654737211807</v>
       </c>
       <c r="K18">
-        <v>5.041370247129862</v>
+        <v>2.671977568091677</v>
       </c>
       <c r="L18">
-        <v>0.03376018058331276</v>
+        <v>0.1063409186118136</v>
       </c>
       <c r="M18">
-        <v>1.036741265637794</v>
+        <v>0.753434911610853</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.26201294655732</v>
+        <v>0.3681987908968836</v>
       </c>
       <c r="D19">
-        <v>0.04075257789091324</v>
+        <v>0.05578721047211843</v>
       </c>
       <c r="E19">
-        <v>0.05826794751937392</v>
+        <v>0.133670576036117</v>
       </c>
       <c r="F19">
-        <v>1.913097785017797</v>
+        <v>3.388079247722459</v>
       </c>
       <c r="G19">
-        <v>1.633714136483377</v>
+        <v>2.655185910514632</v>
       </c>
       <c r="H19">
-        <v>1.000360530998108</v>
+        <v>2.113009733322883</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09360378212559084</v>
+        <v>0.2477706802157869</v>
       </c>
       <c r="K19">
-        <v>4.996707924125531</v>
+        <v>2.660305970018385</v>
       </c>
       <c r="L19">
-        <v>0.03378153696327324</v>
+        <v>0.106367052020687</v>
       </c>
       <c r="M19">
-        <v>1.027966156215236</v>
+        <v>0.7512920956574334</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2692343118039702</v>
+        <v>0.3692868677480732</v>
       </c>
       <c r="D20">
-        <v>0.0421903843359388</v>
+        <v>0.05617935938108332</v>
       </c>
       <c r="E20">
-        <v>0.05903785396528605</v>
+        <v>0.1336455088822603</v>
       </c>
       <c r="F20">
-        <v>1.944506194553554</v>
+        <v>3.386109288706052</v>
       </c>
       <c r="G20">
-        <v>1.663313473302765</v>
+        <v>2.653906034107848</v>
       </c>
       <c r="H20">
-        <v>1.00976676899279</v>
+        <v>2.109661855565975</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09361821769289591</v>
+        <v>0.2472550497894872</v>
       </c>
       <c r="K20">
-        <v>5.198093801974096</v>
+        <v>2.712885849187899</v>
       </c>
       <c r="L20">
-        <v>0.03368660123598755</v>
+        <v>0.1062504475482413</v>
       </c>
       <c r="M20">
-        <v>1.067544999082848</v>
+        <v>0.7609531964733947</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2941042733446011</v>
+        <v>0.3731282738031041</v>
       </c>
       <c r="D21">
-        <v>0.0470618325727159</v>
+        <v>0.05750455146615252</v>
       </c>
       <c r="E21">
-        <v>0.06172723654928092</v>
+        <v>0.1336090859222452</v>
       </c>
       <c r="F21">
-        <v>2.057436125111053</v>
+        <v>3.381667142558911</v>
       </c>
       <c r="G21">
-        <v>1.770074037371501</v>
+        <v>2.651541870166028</v>
       </c>
       <c r="H21">
-        <v>1.045106078987033</v>
+        <v>2.099639530840165</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09391311140084113</v>
+        <v>0.2456298057420483</v>
       </c>
       <c r="K21">
-        <v>5.882412862208184</v>
+        <v>2.890530123647807</v>
       </c>
       <c r="L21">
-        <v>0.03338831404425147</v>
+        <v>0.1058761118889517</v>
       </c>
       <c r="M21">
-        <v>1.202237269764154</v>
+        <v>0.7937306665679102</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3108593309066237</v>
+        <v>0.3757771154136833</v>
       </c>
       <c r="D22">
-        <v>0.05028110283693366</v>
+        <v>0.05837619996906795</v>
       </c>
       <c r="E22">
-        <v>0.06356749800912809</v>
+        <v>0.1336208274592217</v>
       </c>
       <c r="F22">
-        <v>2.13730290664661</v>
+        <v>3.380390128263926</v>
       </c>
       <c r="G22">
-        <v>1.845855667463326</v>
+        <v>2.651444887991659</v>
       </c>
       <c r="H22">
-        <v>1.071242825903994</v>
+        <v>2.094004800789747</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09430301833021559</v>
+        <v>0.2446475138549715</v>
       </c>
       <c r="K22">
-        <v>6.336268962509109</v>
+        <v>3.007359232381248</v>
       </c>
       <c r="L22">
-        <v>0.03320904810285619</v>
+        <v>0.1056444123758311</v>
       </c>
       <c r="M22">
-        <v>1.291724033480108</v>
+        <v>0.8153882752044694</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3018676962325344</v>
+        <v>0.3743507329854481</v>
       </c>
       <c r="D23">
-        <v>0.04855931244617295</v>
+        <v>0.05791048401743382</v>
       </c>
       <c r="E23">
-        <v>0.06257734330461417</v>
+        <v>0.1336113133695314</v>
       </c>
       <c r="F23">
-        <v>2.094085018780731</v>
+        <v>3.380922647071799</v>
       </c>
       <c r="G23">
-        <v>1.804821941769347</v>
+        <v>2.65136381132919</v>
       </c>
       <c r="H23">
-        <v>1.056997529877862</v>
+        <v>2.096928294871304</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09407595604000463</v>
+        <v>0.2451644707739469</v>
       </c>
       <c r="K23">
-        <v>6.093372267620566</v>
+        <v>2.944938974209208</v>
       </c>
       <c r="L23">
-        <v>0.03330327249928899</v>
+        <v>0.1057668928248674</v>
       </c>
       <c r="M23">
-        <v>1.24381759876421</v>
+        <v>0.8038077037232654</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2688355817386139</v>
+        <v>0.3692264172524773</v>
       </c>
       <c r="D24">
-        <v>0.04211128655488494</v>
+        <v>0.05615779542877419</v>
       </c>
       <c r="E24">
-        <v>0.05899520314293483</v>
+        <v>0.1336467054243684</v>
       </c>
       <c r="F24">
-        <v>1.942754855583289</v>
+        <v>3.38620929068415</v>
       </c>
       <c r="G24">
-        <v>1.661661857881626</v>
+        <v>2.653969048451756</v>
       </c>
       <c r="H24">
-        <v>1.009236785446177</v>
+        <v>2.109841096515993</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09361653056583918</v>
+        <v>0.247282962439261</v>
       </c>
       <c r="K24">
-        <v>5.18700784230856</v>
+        <v>2.70999470357367</v>
       </c>
       <c r="L24">
-        <v>0.03369173747003273</v>
+        <v>0.1062567851801868</v>
       </c>
       <c r="M24">
-        <v>1.065365509823366</v>
+        <v>0.7604214579580031</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2350534871043521</v>
+        <v>0.3642931358397448</v>
       </c>
       <c r="D25">
-        <v>0.03527603401734325</v>
+        <v>0.05429191065432803</v>
       </c>
       <c r="E25">
-        <v>0.05544768220771346</v>
+        <v>0.1338380093858653</v>
       </c>
       <c r="F25">
-        <v>1.802153248461664</v>
+        <v>3.398868315159262</v>
       </c>
       <c r="G25">
-        <v>1.529553641011773</v>
+        <v>2.662963042027144</v>
       </c>
       <c r="H25">
-        <v>0.969177190877474</v>
+        <v>2.127689497642706</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09388319986929616</v>
+        <v>0.2499111502476268</v>
       </c>
       <c r="K25">
-        <v>4.232245004542335</v>
+        <v>2.459724175505414</v>
       </c>
       <c r="L25">
-        <v>0.03417644763941219</v>
+        <v>0.1068411235360571</v>
       </c>
       <c r="M25">
-        <v>0.8780058128961556</v>
+        <v>0.7146404101159263</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3611711538166844</v>
+        <v>0.2114692905862086</v>
       </c>
       <c r="D2">
-        <v>0.05293986698581676</v>
+        <v>0.03031454040877435</v>
       </c>
       <c r="E2">
-        <v>0.1341110833114421</v>
+        <v>0.05306994640661422</v>
       </c>
       <c r="F2">
-        <v>3.414142300303382</v>
+        <v>1.714788235267307</v>
       </c>
       <c r="G2">
-        <v>2.674864574869062</v>
+        <v>1.44808405766122</v>
       </c>
       <c r="H2">
-        <v>2.144191772653727</v>
+        <v>0.9479850930631244</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2521415955952264</v>
+        <v>0.09465340695165381</v>
       </c>
       <c r="K2">
-        <v>2.278151364513633</v>
+        <v>3.543477427458072</v>
       </c>
       <c r="L2">
-        <v>0.1073198676380862</v>
+        <v>0.03458835005992889</v>
       </c>
       <c r="M2">
-        <v>0.6818063226443911</v>
+        <v>0.7433427529792027</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3593735820300168</v>
+        <v>0.1961597799136285</v>
       </c>
       <c r="D3">
-        <v>0.05203751109750243</v>
+        <v>0.02698309721913006</v>
       </c>
       <c r="E3">
-        <v>0.1343789104677509</v>
+        <v>0.05158821958156956</v>
       </c>
       <c r="F3">
-        <v>3.428192868062069</v>
+        <v>1.664226583943147</v>
       </c>
       <c r="G3">
-        <v>2.686204409487985</v>
+        <v>1.401259384343263</v>
       </c>
       <c r="H3">
-        <v>2.157466703631442</v>
+        <v>0.9381312127545556</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2538375658741359</v>
+        <v>0.0954979562678453</v>
       </c>
       <c r="K3">
-        <v>2.156780224461102</v>
+        <v>3.083200622029381</v>
       </c>
       <c r="L3">
-        <v>0.1076747805200879</v>
+        <v>0.03490120891112714</v>
       </c>
       <c r="M3">
-        <v>0.6601000140164786</v>
+        <v>0.6536466992691459</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3584268674124189</v>
+        <v>0.187053530690136</v>
       </c>
       <c r="D4">
-        <v>0.05149047033647491</v>
+        <v>0.02494905113766066</v>
       </c>
       <c r="E4">
-        <v>0.1345842861272502</v>
+        <v>0.05073755351984666</v>
       </c>
       <c r="F4">
-        <v>3.438640194198314</v>
+        <v>1.637023646858538</v>
       </c>
       <c r="G4">
-        <v>2.694775964570951</v>
+        <v>1.376213380827792</v>
       </c>
       <c r="H4">
-        <v>2.166647454514745</v>
+        <v>0.9341067062582908</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2549698984456157</v>
+        <v>0.09616518247603878</v>
       </c>
       <c r="K4">
-        <v>2.08308952106637</v>
+        <v>2.803109269918167</v>
       </c>
       <c r="L4">
-        <v>0.1079077949471143</v>
+        <v>0.03510976213120998</v>
       </c>
       <c r="M4">
-        <v>0.6470419749549166</v>
+        <v>0.5992037971227617</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.358080582085563</v>
+        <v>0.1834113322554032</v>
       </c>
       <c r="D5">
-        <v>0.05126933537287215</v>
+        <v>0.02412254819380877</v>
       </c>
       <c r="E5">
-        <v>0.1346782885769464</v>
+        <v>0.05040510826193056</v>
       </c>
       <c r="F5">
-        <v>3.443354698317805</v>
+        <v>1.626846489840574</v>
       </c>
       <c r="G5">
-        <v>2.698672673456571</v>
+        <v>1.366879189659571</v>
       </c>
       <c r="H5">
-        <v>2.170647445334893</v>
+        <v>0.9329489841157539</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2554542238731656</v>
+        <v>0.09647303277521857</v>
       </c>
       <c r="K5">
-        <v>2.053270076689074</v>
+        <v>2.689511240780746</v>
       </c>
       <c r="L5">
-        <v>0.1080065565083403</v>
+        <v>0.03519886469352418</v>
       </c>
       <c r="M5">
-        <v>0.6417887674637228</v>
+        <v>0.5771574825210095</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3580254687772992</v>
+        <v>0.182810549960422</v>
       </c>
       <c r="D6">
-        <v>0.05123272488373232</v>
+        <v>0.02398543856435964</v>
       </c>
       <c r="E6">
-        <v>0.1346945208662422</v>
+        <v>0.05035074574906062</v>
       </c>
       <c r="F6">
-        <v>3.444165131156311</v>
+        <v>1.625209821572753</v>
       </c>
       <c r="G6">
-        <v>2.699344079167076</v>
+        <v>1.365380281859103</v>
       </c>
       <c r="H6">
-        <v>2.171327263040752</v>
+        <v>0.9327851181380282</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2555360285247623</v>
+        <v>0.09652628235699012</v>
       </c>
       <c r="K6">
-        <v>2.048331300973871</v>
+        <v>2.670678513010301</v>
       </c>
       <c r="L6">
-        <v>0.1080231859798655</v>
+        <v>0.03521390805013436</v>
       </c>
       <c r="M6">
-        <v>0.6409205931802475</v>
+        <v>0.5735046121196703</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3584220372774212</v>
+        <v>0.18700413930884</v>
       </c>
       <c r="D7">
-        <v>0.05148748075512088</v>
+        <v>0.0249378955864934</v>
       </c>
       <c r="E7">
-        <v>0.1345855121068436</v>
+        <v>0.05073301335482761</v>
       </c>
       <c r="F7">
-        <v>3.438701925512092</v>
+        <v>1.636882790191436</v>
       </c>
       <c r="G7">
-        <v>2.694826883371888</v>
+        <v>1.376084040239377</v>
       </c>
       <c r="H7">
-        <v>2.166700352377362</v>
+        <v>0.9340891744493121</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2549763375342486</v>
+        <v>0.09616919051327244</v>
       </c>
       <c r="K7">
-        <v>2.082686513531399</v>
+        <v>2.801575171676063</v>
       </c>
       <c r="L7">
-        <v>0.1079091114551414</v>
+        <v>0.03511094716446639</v>
       </c>
       <c r="M7">
-        <v>0.6469708525286606</v>
+        <v>0.5989059316323875</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3605187811576371</v>
+        <v>0.2061263188931264</v>
       </c>
       <c r="D8">
-        <v>0.05262729499241914</v>
+        <v>0.02916316154013998</v>
       </c>
       <c r="E8">
-        <v>0.1341949461646834</v>
+        <v>0.05254636507329202</v>
       </c>
       <c r="F8">
-        <v>3.418608797240438</v>
+        <v>1.696521003715134</v>
       </c>
       <c r="G8">
-        <v>2.678440129890589</v>
+        <v>1.431133011438376</v>
       </c>
       <c r="H8">
-        <v>2.148555084728883</v>
+        <v>0.9441500830243683</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2527074838749002</v>
+        <v>0.09491285586510045</v>
       </c>
       <c r="K8">
-        <v>2.236130521950429</v>
+        <v>3.384192915196309</v>
       </c>
       <c r="L8">
-        <v>0.1074391144261613</v>
+        <v>0.03469279377340051</v>
       </c>
       <c r="M8">
-        <v>0.6742661316943099</v>
+        <v>0.7122726920826992</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3658756107919032</v>
+        <v>0.2462140397535677</v>
       </c>
       <c r="D9">
-        <v>0.05491709295650082</v>
+        <v>0.03756546913550096</v>
       </c>
       <c r="E9">
-        <v>0.1337530661593878</v>
+        <v>0.0566039190952683</v>
       </c>
       <c r="F9">
-        <v>3.393677389327308</v>
+        <v>1.846799350141524</v>
       </c>
       <c r="G9">
-        <v>2.659110739866094</v>
+        <v>1.571389272170876</v>
       </c>
       <c r="H9">
-        <v>2.121154504863739</v>
+        <v>0.981285068352804</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2489799851030412</v>
+        <v>0.09369914936477031</v>
       </c>
       <c r="K9">
-        <v>2.543608239427272</v>
+        <v>4.551309767229782</v>
       </c>
       <c r="L9">
-        <v>0.1066367822052445</v>
+        <v>0.03400453674152271</v>
       </c>
       <c r="M9">
-        <v>0.7299260046790508</v>
+        <v>0.940537580718825</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3705704932402227</v>
+        <v>0.277640394102491</v>
       </c>
       <c r="D10">
-        <v>0.05663160128567313</v>
+        <v>0.04385032657611276</v>
       </c>
       <c r="E10">
-        <v>0.1336250723430084</v>
+        <v>0.05994063914765491</v>
       </c>
       <c r="F10">
-        <v>3.384225512252286</v>
+        <v>1.981877924622182</v>
       </c>
       <c r="G10">
-        <v>2.652773442196349</v>
+        <v>1.698588078859956</v>
       </c>
       <c r="H10">
-        <v>2.106027267355074</v>
+        <v>1.021218408445833</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2466809685736244</v>
+        <v>0.09367702729984728</v>
       </c>
       <c r="K10">
-        <v>2.773515241644247</v>
+        <v>5.430932690710051</v>
       </c>
       <c r="L10">
-        <v>0.1061194358694246</v>
+        <v>0.03358105047803406</v>
       </c>
       <c r="M10">
-        <v>0.7721173340004555</v>
+        <v>1.113340134207291</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3728712959331233</v>
+        <v>0.2924645797759808</v>
       </c>
       <c r="D11">
-        <v>0.05741835431084752</v>
+        <v>0.04674421442478405</v>
       </c>
       <c r="E11">
-        <v>0.133609372656128</v>
+        <v>0.06154828685858504</v>
       </c>
       <c r="F11">
-        <v>3.381860287215218</v>
+        <v>2.049776975146969</v>
       </c>
       <c r="G11">
-        <v>2.651610768407608</v>
+        <v>1.762818073878861</v>
       </c>
       <c r="H11">
-        <v>2.100235641360911</v>
+        <v>1.042644486452616</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2457304623973968</v>
+        <v>0.09388280386033543</v>
       </c>
       <c r="K11">
-        <v>2.87897648366453</v>
+        <v>5.837703580220705</v>
       </c>
       <c r="L11">
-        <v>0.1058996125248131</v>
+        <v>0.03340673444576758</v>
       </c>
       <c r="M11">
-        <v>0.7915929778486657</v>
+        <v>1.193428368022936</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3737662815246665</v>
+        <v>0.298163290148608</v>
       </c>
       <c r="D12">
-        <v>0.05771723616989277</v>
+        <v>0.04784606303410754</v>
       </c>
       <c r="E12">
-        <v>0.1336095271117621</v>
+        <v>0.06217113035907218</v>
       </c>
       <c r="F12">
-        <v>3.381243559780046</v>
+        <v>2.076519001813566</v>
       </c>
       <c r="G12">
-        <v>2.651418854739632</v>
+        <v>1.788161325654357</v>
       </c>
       <c r="H12">
-        <v>2.098199508124338</v>
+        <v>1.051275161796667</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2453842340356829</v>
+        <v>0.09399431523740631</v>
       </c>
       <c r="K12">
-        <v>2.919037381691965</v>
+        <v>5.992857969487488</v>
       </c>
       <c r="L12">
-        <v>0.1058185927424837</v>
+        <v>0.03334341033926691</v>
       </c>
       <c r="M12">
-        <v>0.7990084227240004</v>
+        <v>1.224002904698722</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3735724755884462</v>
+        <v>0.2969320288659958</v>
       </c>
       <c r="D13">
-        <v>0.05765282449607412</v>
+        <v>0.04760847659176193</v>
       </c>
       <c r="E13">
-        <v>0.1336092228104171</v>
+        <v>0.06203634470902841</v>
       </c>
       <c r="F13">
-        <v>3.381363965374064</v>
+        <v>2.070712057172685</v>
       </c>
       <c r="G13">
-        <v>2.65144912459624</v>
+        <v>1.78265600124584</v>
       </c>
       <c r="H13">
-        <v>2.098631036863196</v>
+        <v>1.049392566371722</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2454581908562687</v>
+        <v>0.09396876171072677</v>
       </c>
       <c r="K13">
-        <v>2.910404003837186</v>
+        <v>5.959390074629425</v>
       </c>
       <c r="L13">
-        <v>0.1058359431001827</v>
+        <v>0.033356928009038</v>
       </c>
       <c r="M13">
-        <v>0.7974095783903152</v>
+        <v>1.217406567625062</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3729444516092428</v>
+        <v>0.2929316542795277</v>
       </c>
       <c r="D14">
-        <v>0.05744292448747501</v>
+        <v>0.04683473794174375</v>
       </c>
       <c r="E14">
-        <v>0.1336092632062105</v>
+        <v>0.06159923967815573</v>
       </c>
       <c r="F14">
-        <v>3.381803954111305</v>
+        <v>2.051955784456908</v>
       </c>
       <c r="G14">
-        <v>2.651589996165228</v>
+        <v>1.764881975939744</v>
       </c>
       <c r="H14">
-        <v>2.100064978532487</v>
+        <v>1.043343878116445</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.245701703260039</v>
+        <v>0.09389128917320733</v>
       </c>
       <c r="K14">
-        <v>2.882269817200267</v>
+        <v>5.850444777746418</v>
       </c>
       <c r="L14">
-        <v>0.1058929024884714</v>
+        <v>0.03340147060034671</v>
       </c>
       <c r="M14">
-        <v>0.7922022415527152</v>
+        <v>1.195938597049704</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3725628575726603</v>
+        <v>0.2904926824346887</v>
       </c>
       <c r="D15">
-        <v>0.05731447840202009</v>
+        <v>0.04636161276495443</v>
       </c>
       <c r="E15">
-        <v>0.1336100818404802</v>
+        <v>0.0613333679487269</v>
       </c>
       <c r="F15">
-        <v>3.382109807647694</v>
+        <v>2.040604415870348</v>
       </c>
       <c r="G15">
-        <v>2.651708658506806</v>
+        <v>1.754131129077052</v>
       </c>
       <c r="H15">
-        <v>2.100963768502908</v>
+        <v>1.039707747367402</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2458526467812554</v>
+        <v>0.09384828978114257</v>
       </c>
       <c r="K15">
-        <v>2.865053071071429</v>
+        <v>5.78386362921907</v>
       </c>
       <c r="L15">
-        <v>0.1059280809266658</v>
+        <v>0.03342910556185874</v>
       </c>
       <c r="M15">
-        <v>0.7890178583450762</v>
+        <v>1.182822071254691</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.370423450719997</v>
+        <v>0.2766829879639658</v>
       </c>
       <c r="D16">
-        <v>0.05658032015492864</v>
+        <v>0.04366198708906666</v>
       </c>
       <c r="E16">
-        <v>0.1336269527416327</v>
+        <v>0.05983747770626735</v>
       </c>
       <c r="F16">
-        <v>3.384419076429651</v>
+        <v>1.977578878502385</v>
       </c>
       <c r="G16">
-        <v>2.652884126037407</v>
+        <v>1.69452734170963</v>
       </c>
       <c r="H16">
-        <v>2.106427720616438</v>
+        <v>1.019887772139128</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2467450045924267</v>
+        <v>0.09366813422521858</v>
       </c>
       <c r="K16">
-        <v>2.766640641683637</v>
+        <v>5.404496383921867</v>
       </c>
       <c r="L16">
-        <v>0.1061341133560356</v>
+        <v>0.03359281538640246</v>
       </c>
       <c r="M16">
-        <v>0.7708502245196769</v>
+        <v>1.108138781662859</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3691532620760114</v>
+        <v>0.268352682680856</v>
       </c>
       <c r="D17">
-        <v>0.0561316657019475</v>
+        <v>0.0420154470033367</v>
       </c>
       <c r="E17">
-        <v>0.1336481831379217</v>
+        <v>0.05894357049980314</v>
       </c>
       <c r="F17">
-        <v>3.386331740603737</v>
+        <v>1.940636461621892</v>
       </c>
       <c r="G17">
-        <v>2.654046532597761</v>
+        <v>1.659664266079432</v>
       </c>
       <c r="H17">
-        <v>2.110059031729321</v>
+        <v>1.008596562409963</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2473168526258007</v>
+        <v>0.09361462422942424</v>
       </c>
       <c r="K17">
-        <v>2.706491384466801</v>
+        <v>5.173576547379071</v>
       </c>
       <c r="L17">
-        <v>0.106264476060419</v>
+        <v>0.03369797411614694</v>
       </c>
       <c r="M17">
-        <v>0.7597772075584572</v>
+        <v>1.06272504361624</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3684382219010445</v>
+        <v>0.2636104227729419</v>
       </c>
       <c r="D18">
-        <v>0.05587425436667814</v>
+        <v>0.04107161770005519</v>
       </c>
       <c r="E18">
-        <v>0.1336643978985013</v>
+        <v>0.0584377910348195</v>
       </c>
       <c r="F18">
-        <v>3.387613891405962</v>
+        <v>1.919988607391232</v>
       </c>
       <c r="G18">
-        <v>2.654876970636849</v>
+        <v>1.640204252845365</v>
       </c>
       <c r="H18">
-        <v>2.112250226853803</v>
+        <v>1.002405833437138</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.247654737211807</v>
+        <v>0.0936039941435709</v>
       </c>
       <c r="K18">
-        <v>2.671977568091677</v>
+        <v>5.041370247129805</v>
       </c>
       <c r="L18">
-        <v>0.1063409186118136</v>
+        <v>0.0337601805833696</v>
       </c>
       <c r="M18">
-        <v>0.753434911610853</v>
+        <v>1.036741265637794</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3681987908968836</v>
+        <v>0.2620129465576895</v>
       </c>
       <c r="D19">
-        <v>0.05578721047211843</v>
+        <v>0.04075257789099851</v>
       </c>
       <c r="E19">
-        <v>0.133670576036117</v>
+        <v>0.05826794751937214</v>
       </c>
       <c r="F19">
-        <v>3.388079247722459</v>
+        <v>1.913097785017797</v>
       </c>
       <c r="G19">
-        <v>2.655185910514632</v>
+        <v>1.633714136483292</v>
       </c>
       <c r="H19">
-        <v>2.113009733322883</v>
+        <v>1.000360530998108</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2477706802157869</v>
+        <v>0.09360378212559084</v>
       </c>
       <c r="K19">
-        <v>2.660305970018385</v>
+        <v>4.996707924125417</v>
       </c>
       <c r="L19">
-        <v>0.106367052020687</v>
+        <v>0.03378153696315866</v>
       </c>
       <c r="M19">
-        <v>0.7512920956574334</v>
+        <v>1.027966156215228</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3692868677480732</v>
+        <v>0.269234311804027</v>
       </c>
       <c r="D20">
-        <v>0.05617935938108332</v>
+        <v>0.04219038433594591</v>
       </c>
       <c r="E20">
-        <v>0.1336455088822603</v>
+        <v>0.05903785396528605</v>
       </c>
       <c r="F20">
-        <v>3.386109288706052</v>
+        <v>1.944506194553554</v>
       </c>
       <c r="G20">
-        <v>2.653906034107848</v>
+        <v>1.663313473302765</v>
       </c>
       <c r="H20">
-        <v>2.109661855565975</v>
+        <v>1.009766768992677</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2472550497894872</v>
+        <v>0.09361821769295275</v>
       </c>
       <c r="K20">
-        <v>2.712885849187899</v>
+        <v>5.198093801974096</v>
       </c>
       <c r="L20">
-        <v>0.1062504475482413</v>
+        <v>0.03368660123598577</v>
       </c>
       <c r="M20">
-        <v>0.7609531964733947</v>
+        <v>1.067544999082841</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3731282738031041</v>
+        <v>0.2941042733446579</v>
       </c>
       <c r="D21">
-        <v>0.05750455146615252</v>
+        <v>0.04706183257295038</v>
       </c>
       <c r="E21">
-        <v>0.1336090859222452</v>
+        <v>0.06172723654923473</v>
       </c>
       <c r="F21">
-        <v>3.381667142558911</v>
+        <v>2.057436125111039</v>
       </c>
       <c r="G21">
-        <v>2.651541870166028</v>
+        <v>1.770074037371472</v>
       </c>
       <c r="H21">
-        <v>2.099639530840165</v>
+        <v>1.04510607898689</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2456298057420483</v>
+        <v>0.09391311140067771</v>
       </c>
       <c r="K21">
-        <v>2.890530123647807</v>
+        <v>5.882412862208241</v>
       </c>
       <c r="L21">
-        <v>0.1058761118889517</v>
+        <v>0.033388314044136</v>
       </c>
       <c r="M21">
-        <v>0.7937306665679102</v>
+        <v>1.20223726976414</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3757771154136833</v>
+        <v>0.3108593309066237</v>
       </c>
       <c r="D22">
-        <v>0.05837619996906795</v>
+        <v>0.05028110283694076</v>
       </c>
       <c r="E22">
-        <v>0.1336208274592217</v>
+        <v>0.06356749800916361</v>
       </c>
       <c r="F22">
-        <v>3.380390128263926</v>
+        <v>2.13730290664661</v>
       </c>
       <c r="G22">
-        <v>2.651444887991659</v>
+        <v>1.845855667463354</v>
       </c>
       <c r="H22">
-        <v>2.094004800789747</v>
+        <v>1.071242825904022</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2446475138549715</v>
+        <v>0.09430301833023336</v>
       </c>
       <c r="K22">
-        <v>3.007359232381248</v>
+        <v>6.336268962508939</v>
       </c>
       <c r="L22">
-        <v>0.1056444123758311</v>
+        <v>0.03320904810287395</v>
       </c>
       <c r="M22">
-        <v>0.8153882752044694</v>
+        <v>1.291724033480108</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3743507329854481</v>
+        <v>0.3018676962322786</v>
       </c>
       <c r="D23">
-        <v>0.05791048401743382</v>
+        <v>0.04855931244616585</v>
       </c>
       <c r="E23">
-        <v>0.1336113133695314</v>
+        <v>0.06257734330461773</v>
       </c>
       <c r="F23">
-        <v>3.380922647071799</v>
+        <v>2.094085018780746</v>
       </c>
       <c r="G23">
-        <v>2.65136381132919</v>
+        <v>1.804821941769347</v>
       </c>
       <c r="H23">
-        <v>2.096928294871304</v>
+        <v>1.056997529877975</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2451644707739469</v>
+        <v>0.09407595603999752</v>
       </c>
       <c r="K23">
-        <v>2.944938974209208</v>
+        <v>6.093372267620509</v>
       </c>
       <c r="L23">
-        <v>0.1057668928248674</v>
+        <v>0.03330327249927656</v>
       </c>
       <c r="M23">
-        <v>0.8038077037232654</v>
+        <v>1.243817598764252</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3692264172524773</v>
+        <v>0.2688355817389692</v>
       </c>
       <c r="D24">
-        <v>0.05615779542877419</v>
+        <v>0.04211128655478547</v>
       </c>
       <c r="E24">
-        <v>0.1336467054243684</v>
+        <v>0.05899520314295614</v>
       </c>
       <c r="F24">
-        <v>3.38620929068415</v>
+        <v>1.942754855583274</v>
       </c>
       <c r="G24">
-        <v>2.653969048451756</v>
+        <v>1.661661857881626</v>
       </c>
       <c r="H24">
-        <v>2.109841096515993</v>
+        <v>1.009236785446262</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.247282962439261</v>
+        <v>0.09361653056591024</v>
       </c>
       <c r="K24">
-        <v>2.70999470357367</v>
+        <v>5.18700784230856</v>
       </c>
       <c r="L24">
-        <v>0.1062567851801868</v>
+        <v>0.0336917374701251</v>
       </c>
       <c r="M24">
-        <v>0.7604214579580031</v>
+        <v>1.065365509823373</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3642931358397448</v>
+        <v>0.2350534871043664</v>
       </c>
       <c r="D25">
-        <v>0.05429191065432803</v>
+        <v>0.03527603401744273</v>
       </c>
       <c r="E25">
-        <v>0.1338380093858653</v>
+        <v>0.05544768220769036</v>
       </c>
       <c r="F25">
-        <v>3.398868315159262</v>
+        <v>1.802153248461678</v>
       </c>
       <c r="G25">
-        <v>2.662963042027144</v>
+        <v>1.529553641011887</v>
       </c>
       <c r="H25">
-        <v>2.127689497642706</v>
+        <v>0.9691771908775024</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2499111502476268</v>
+        <v>0.09388319986920735</v>
       </c>
       <c r="K25">
-        <v>2.459724175505414</v>
+        <v>4.232245004542335</v>
       </c>
       <c r="L25">
-        <v>0.1068411235360571</v>
+        <v>0.03417644763938199</v>
       </c>
       <c r="M25">
-        <v>0.7146404101159263</v>
+        <v>0.8780058128961628</v>
       </c>
       <c r="N25">
         <v>0</v>
